--- a/Table2/Table2.xlsx
+++ b/Table2/Table2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgalland/Documents/workspace/natural-insecticides-machine-learning-paper/Table2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CC6A2B-B382-9E4C-9310-26DECE531EEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC08DC9C-0675-0348-BD3D-54F906B29E6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19340" yWindow="1060" windowWidth="28040" windowHeight="17440" xr2:uid="{875DB20D-37BC-4E4E-9FDF-015CDA17C34F}"/>
+    <workbookView xWindow="23480" yWindow="1600" windowWidth="28040" windowHeight="17440" xr2:uid="{875DB20D-37BC-4E4E-9FDF-015CDA17C34F}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="2" r:id="rId1"/>
@@ -91,7 +91,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -138,7 +138,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -457,16 +457,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465F35CF-C59F-E542-A701-D2AAC9B38253}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="5.83203125" style="2" customWidth="1"/>
     <col min="6" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="10.83203125" style="2"/>
@@ -479,13 +479,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>17</v>
@@ -516,11 +516,11 @@
       <c r="B2" s="1">
         <v>5.5410000000000004</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
         <v>67.055700000000002</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
@@ -549,11 +549,11 @@
       <c r="B3" s="1">
         <v>11.843999999999999</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
+        <v>996.41421947449771</v>
+      </c>
+      <c r="D3" s="1">
         <v>91.057299999999998</v>
-      </c>
-      <c r="D3" s="3">
-        <v>996.41421947449771</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
@@ -582,11 +582,11 @@
       <c r="B4" s="1">
         <v>14.571999999999999</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
+        <v>1082.8329809725158</v>
+      </c>
+      <c r="D4" s="1">
         <v>91.0565</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1082.8329809725158</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
@@ -615,11 +615,11 @@
       <c r="B5" s="1">
         <v>14.537000000000001</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
+        <v>1081.7230443974631</v>
+      </c>
+      <c r="D5" s="1">
         <v>91.057100000000005</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1081.7230443974631</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
@@ -648,11 +648,11 @@
       <c r="B6" s="1">
         <v>23.181000000000001</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
+        <v>1386.751430387794</v>
+      </c>
+      <c r="D6" s="1">
         <v>147.1173</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1386.751430387794</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
@@ -681,11 +681,11 @@
       <c r="B7" s="1">
         <v>24.707000000000001</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
+        <v>1457.0782889426957</v>
+      </c>
+      <c r="D7" s="1">
         <v>93.072500000000005</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1457.0782889426957</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
@@ -714,11 +714,11 @@
       <c r="B8" s="1">
         <v>25.356000000000002</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
+        <v>1488.5068603712673</v>
+      </c>
+      <c r="D8" s="1">
         <v>105.07259999999999</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1488.5068603712673</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
@@ -747,11 +747,11 @@
       <c r="B9" s="1">
         <v>25.968</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
+        <v>1523.0564102564103</v>
+      </c>
+      <c r="D9" s="1">
         <v>119.0881</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1523.0564102564103</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
@@ -780,11 +780,11 @@
       <c r="B10" s="1">
         <v>9.6530000000000005</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
+        <v>928.68624420401852</v>
+      </c>
+      <c r="D10" s="1">
         <v>91.0565</v>
-      </c>
-      <c r="D10" s="3">
-        <v>928.68624420401852</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
@@ -813,11 +813,11 @@
       <c r="B11" s="1">
         <v>11.96</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="1">
         <v>91.055999999999997</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1000</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
@@ -846,11 +846,11 @@
       <c r="B12" s="1">
         <v>12.372999999999999</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
+        <v>1013.0972515856237</v>
+      </c>
+      <c r="D12" s="1">
         <v>91.057500000000005</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1013.0972515856237</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
@@ -879,11 +879,11 @@
       <c r="B13" s="1">
         <v>12.760999999999999</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
+        <v>1025.4016913319238</v>
+      </c>
+      <c r="D13" s="1">
         <v>91.055700000000002</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1025.4016913319238</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
@@ -912,11 +912,11 @@
       <c r="B14" s="1">
         <v>13.603999999999999</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
+        <v>1052.1353065539113</v>
+      </c>
+      <c r="D14" s="1">
         <v>105.07250000000001</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1052.1353065539113</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="2" t="s">
@@ -945,11 +945,11 @@
       <c r="B15" s="1">
         <v>22.443999999999999</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
+        <v>1358.6395422759058</v>
+      </c>
+      <c r="D15" s="1">
         <v>161.1317</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1358.6395422759058</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
@@ -978,11 +978,11 @@
       <c r="B16" s="1">
         <v>23.181000000000001</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
+        <v>1386.751430387794</v>
+      </c>
+      <c r="D16" s="1">
         <v>147.1173</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1386.751430387794</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
@@ -1011,11 +1011,11 @@
       <c r="B17" s="1">
         <v>25.420999999999999</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
+        <v>1491.6545601291364</v>
+      </c>
+      <c r="D17" s="1">
         <v>161.13399999999999</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1491.6545601291364</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="2" t="s">
@@ -1044,11 +1044,11 @@
       <c r="B18" s="1">
         <v>26.2</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
+        <v>1537.3333333333335</v>
+      </c>
+      <c r="D18" s="1">
         <v>105.07259999999999</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1537.3333333333335</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2" t="s">
@@ -1077,11 +1077,11 @@
       <c r="B19" s="1">
         <v>26.803000000000001</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
+        <v>1574.4410256410258</v>
+      </c>
+      <c r="D19" s="1">
         <v>111.0836</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1574.4410256410258</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="2" t="s">
